--- a/figs/Graph Efficiency.xlsx
+++ b/figs/Graph Efficiency.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/magdy/Desktop/Stanford/Fall18/224w/project/figs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83E8F4F4-0C90-0546-84C4-0C0C7ED94E11}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F6F476-7F49-C448-8B9B-4B50F19E6F27}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="720" windowWidth="25440" windowHeight="14620" xr2:uid="{D1E331A9-5E5B-EE4A-A633-981A3A1817D0}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14620" xr2:uid="{D1E331A9-5E5B-EE4A-A633-981A3A1817D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -425,7 +424,7 @@
   <dimension ref="B3:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/figs/Graph Efficiency.xlsx
+++ b/figs/Graph Efficiency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/magdy/Desktop/Stanford/Fall18/224w/project/figs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F6F476-7F49-C448-8B9B-4B50F19E6F27}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95FFD47-1498-D343-972D-2A2195D01B70}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14620" xr2:uid="{D1E331A9-5E5B-EE4A-A633-981A3A1817D0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>LS174T</t>
   </si>
@@ -55,14 +55,25 @@
   </si>
   <si>
     <t>SW122</t>
+  </si>
+  <si>
+    <t>Mesentery</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Num Edges</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="171" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -101,11 +112,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,19 +436,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F21E604-DA57-9247-9AB8-6DB5A9D909CD}">
-  <dimension ref="B3:Q5"/>
+  <dimension ref="B3:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="4"/>
+    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>8</v>
       </c>
@@ -455,11 +472,17 @@
       <c r="N3" t="s">
         <v>5</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -484,7 +507,7 @@
         <f>J4*F4</f>
         <v>3.6404100873625467E+18</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="4">
         <f>1/N4</f>
         <v>2.7469432728786154E-19</v>
       </c>
@@ -492,9 +515,15 @@
         <f>ABS(O5-O4)/O4</f>
         <v>0.99784823013189428</v>
       </c>
-      <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q4" s="5">
+        <f>R4/(D4*(D4-1))</f>
+        <v>7.9788950984435814E-5</v>
+      </c>
+      <c r="R4" s="3">
+        <v>26118</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -519,13 +548,209 @@
         <f>J5*F5</f>
         <v>1.6918212961905913E+21</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="4">
         <f>1/N5</f>
         <v>5.9107897639760258E-22</v>
       </c>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="5">
+        <f>R5/(D5*(D5-1))</f>
+        <v>2.087054534208423E-5</v>
+      </c>
+      <c r="R5" s="3">
+        <v>108444</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>388</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5.1753137533999999E-7</v>
+      </c>
+      <c r="F6" s="1">
+        <f>1/E6</f>
+        <v>1932249.9999986184</v>
+      </c>
+      <c r="J6">
+        <f>D6*(D6-1)</f>
+        <v>150156</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <f>J6*F6</f>
+        <v>290138930999.79254</v>
+      </c>
+      <c r="O6" s="4">
+        <f>1/N6</f>
+        <v>3.4466246792668961E-12</v>
+      </c>
+      <c r="Q6" s="5">
+        <f>R6/(D6*(D6-1))</f>
+        <v>3.6362183329337488E-3</v>
+      </c>
+      <c r="R6" s="3">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>16030.5802712</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>11</v>
+      </c>
+      <c r="R13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>16354</v>
+      </c>
+      <c r="E14" s="1">
+        <v>8538965.4830399994</v>
+      </c>
+      <c r="F14" s="1">
+        <f>1/E14</f>
+        <v>1.1711020521000924E-7</v>
+      </c>
+      <c r="J14">
+        <f>D14*(D14-1)</f>
+        <v>267436962</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <f>J14*F14</f>
+        <v>31.319597500561443</v>
+      </c>
+      <c r="O14" s="4">
+        <f>1/N14</f>
+        <v>3.1928890528751967E-2</v>
+      </c>
+      <c r="P14" s="2">
+        <f>ABS(O15-O14)/O14</f>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="7">
+        <f>R14/(D14*(D14-1))</f>
+        <v>7.6193656432576435E-5</v>
+      </c>
+      <c r="R14" s="3">
+        <v>20377</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>72084</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3.0712646682600001E-12</v>
+      </c>
+      <c r="F15" s="1">
+        <f>1/E15</f>
+        <v>325598770543.77789</v>
+      </c>
+      <c r="J15">
+        <f>D15*(D15-1)</f>
+        <v>5196030972</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <f>J15*F15</f>
+        <v>1.6918212961905913E+21</v>
+      </c>
+      <c r="O15" s="4">
+        <f>1/N15</f>
+        <v>5.9107897639760258E-22</v>
+      </c>
+      <c r="Q15" s="5">
+        <f>R15/(D15*(D15-1))</f>
+        <v>2.087054534208423E-5</v>
+      </c>
+      <c r="R15" s="3">
+        <v>108444</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>388</v>
+      </c>
+      <c r="E16">
+        <v>16030.5802712</v>
+      </c>
+      <c r="F16" s="1">
+        <f>1/E16</f>
+        <v>6.2380773688932916E-5</v>
+      </c>
+      <c r="J16">
+        <f>D16*(D16-1)</f>
+        <v>150156</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <f>J16*F16</f>
+        <v>9.3668474540354119</v>
+      </c>
+      <c r="O16" s="4">
+        <f>1/N16</f>
+        <v>0.10675950525586722</v>
+      </c>
+      <c r="Q16" s="5">
+        <f>R16/(D16*(D16-1))</f>
+        <v>3.6362183329337488E-3</v>
+      </c>
+      <c r="R16" s="3">
+        <v>546</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>